--- a/packages/backend/public/template/UserTemplate.xlsx
+++ b/packages/backend/public/template/UserTemplate.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC TAP\TLCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D74F3073-2CDB-4B04-B5D1-747259F760CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6E4E8C-FB4F-4619-A40E-38441964EDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7A374D5C-CBB3-44F8-87FF-81418782261D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,27 +37,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">CODE </t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>GENDER</t>
-  </si>
-  <si>
-    <t>Hung Pham</t>
-  </si>
-  <si>
-    <t>19110222@student.hcmute.edu.vn</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Le Quoc Bao</t>
+  </si>
+  <si>
+    <t>Pham Quang Hung</t>
+  </si>
+  <si>
+    <t>Ta Quoc Anh</t>
+  </si>
+  <si>
+    <t>19110327@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>19110373@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>19110323@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Huynh Xuan Phung</t>
+  </si>
+  <si>
+    <t>phunghx@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>4561</t>
+  </si>
+  <si>
+    <t>Le Van Vinh</t>
+  </si>
+  <si>
+    <t>vinhlv@hcmute.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -101,9 +135,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,49 +455,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFD1F32-2FAE-4A16-9F3A-5299D2AE8261}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>19110327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19110373</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>19110323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5707B8A8-DDED-4FD7-BFA9-4297392E6C8B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0870CA1E-B3B7-4490-9E08-EF39EF642B67}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{72E18614-C15D-454E-BD0F-953C1DA7F8CE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A688F86-2609-4DD4-83E5-3BC2F2C820BD}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>12358</v>
+        <v>19110327</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19110373</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>19110323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C6C10032-83E9-4621-876C-B6AF6B7BC712}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D0BE02BA-6ACE-45B5-9D43-B25391267329}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{72A18E8E-2D7C-48CC-BFBD-F0F23FE04F71}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{3137BFA9-CF0D-4DC9-9AEB-E95AD468E8B1}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{C6C10032-83E9-4621-876C-B6AF6B7BC712}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{E83B629E-09DE-4A27-9F41-9ECE3F83D6B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/packages/backend/public/template/UserTemplate.xlsx
+++ b/packages/backend/public/template/UserTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TLCN\TLCN\packages\backend\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6E4E8C-FB4F-4619-A40E-38441964EDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FD74E-C1AE-46A6-8E62-489EAD2340DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7A374D5C-CBB3-44F8-87FF-81418782261D}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{7A374D5C-CBB3-44F8-87FF-81418782261D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>male</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>vinhlv@hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>Bao Le Quoc</t>
+  </si>
+  <si>
+    <t>bao.lq@holistics.io</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,51 +495,33 @@
         <v>19110327</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>19110373</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3" s="1"/>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>19110323</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" s="1"/>
+      <c r="D4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{5707B8A8-DDED-4FD7-BFA9-4297392E6C8B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{0870CA1E-B3B7-4490-9E08-EF39EF642B67}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{72E18614-C15D-454E-BD0F-953C1DA7F8CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/packages/backend/public/template/UserTemplate.xlsx
+++ b/packages/backend/public/template/UserTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TLCN\TLCN\packages\backend\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FD74E-C1AE-46A6-8E62-489EAD2340DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C112A7-61EC-48CD-AE89-A331F5222302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{7A374D5C-CBB3-44F8-87FF-81418782261D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7A374D5C-CBB3-44F8-87FF-81418782261D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>male</t>
   </si>
@@ -93,10 +93,25 @@
     <t>vinhlv@hcmute.edu.vn</t>
   </si>
   <si>
-    <t>Bao Le Quoc</t>
-  </si>
-  <si>
-    <t>bao.lq@holistics.io</t>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>2134@gmail.com</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>11@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -141,11 +156,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,76 +477,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFD1F32-2FAE-4A16-9F3A-5299D2AE8261}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>19110327</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3" s="1"/>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" s="1"/>
-      <c r="D4"/>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5707B8A8-DDED-4FD7-BFA9-4297392E6C8B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DEA62B3C-BFE0-4ABB-A25B-9C12C25DA2B9}">
+          <x14:formula1>
+            <xm:f>Sheet2!$J$2:$J$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A688F86-2609-4DD4-83E5-3BC2F2C820BD}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +545,7 @@
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -554,8 +558,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19110327</v>
       </c>
@@ -568,8 +575,11 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19110373</v>
       </c>
@@ -582,8 +592,11 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19110323</v>
       </c>
@@ -597,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -611,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -625,13 +638,49 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2134</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2222222</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D15" xr:uid="{DEA62B3C-BFE0-4ABB-A25B-9C12C25DA2B9}">
+      <formula1>$J$2:$J$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D0BE02BA-6ACE-45B5-9D43-B25391267329}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{72A18E8E-2D7C-48CC-BFBD-F0F23FE04F71}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{3137BFA9-CF0D-4DC9-9AEB-E95AD468E8B1}"/>
     <hyperlink ref="C8" r:id="rId4" xr:uid="{C6C10032-83E9-4621-876C-B6AF6B7BC712}"/>
     <hyperlink ref="C9" r:id="rId5" xr:uid="{E83B629E-09DE-4A27-9F41-9ECE3F83D6B7}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{5707B8A8-DDED-4FD7-BFA9-4297392E6C8B}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{4E561F94-8108-42CB-89A6-4B2909CD6937}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/packages/backend/public/template/UserTemplate.xlsx
+++ b/packages/backend/public/template/UserTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOC TAP\TLCN\source\packages\backend\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C112A7-61EC-48CD-AE89-A331F5222302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFE2153-99BE-4F30-BEFD-3C11EEA649C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7A374D5C-CBB3-44F8-87FF-81418782261D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>male</t>
   </si>
@@ -54,45 +54,9 @@
     <t>gender</t>
   </si>
   <si>
-    <t>Le Quoc Bao</t>
-  </si>
-  <si>
-    <t>Pham Quang Hung</t>
-  </si>
-  <si>
-    <t>Ta Quoc Anh</t>
-  </si>
-  <si>
-    <t>19110327@student.hcmute.edu.vn</t>
-  </si>
-  <si>
-    <t>19110373@student.hcmute.edu.vn</t>
-  </si>
-  <si>
-    <t>19110323@student.hcmute.edu.vn</t>
-  </si>
-  <si>
     <t>female</t>
   </si>
   <si>
-    <t>Huynh Xuan Phung</t>
-  </si>
-  <si>
-    <t>phunghx@hcmute.edu.vn</t>
-  </si>
-  <si>
-    <t>0121</t>
-  </si>
-  <si>
-    <t>4561</t>
-  </si>
-  <si>
-    <t>Le Van Vinh</t>
-  </si>
-  <si>
-    <t>vinhlv@hcmute.edu.vn</t>
-  </si>
-  <si>
     <t>CODE</t>
   </si>
   <si>
@@ -105,13 +69,10 @@
     <t>GENDER</t>
   </si>
   <si>
-    <t>2134@gmail.com</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>11@gmail.com</t>
+    <t>Nguyen Van A</t>
+  </si>
+  <si>
+    <t>19110123@student.hcmute.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -479,9 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFD1F32-2FAE-4A16-9F3A-5299D2AE8261}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -494,26 +453,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2" s="1"/>
+      <c r="A2">
+        <v>19110123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E0E086AD-6B7C-411F-AD7C-6CEE939DFD5E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -534,7 +505,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="A15:D15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,108 +534,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>19110327</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>19110373</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>19110323</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2134</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2222222</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
       <c r="E15" s="2"/>
     </row>
   </sheetData>
@@ -673,15 +576,6 @@
       <formula1>$J$2:$J$3</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D0BE02BA-6ACE-45B5-9D43-B25391267329}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{72A18E8E-2D7C-48CC-BFBD-F0F23FE04F71}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{3137BFA9-CF0D-4DC9-9AEB-E95AD468E8B1}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{C6C10032-83E9-4621-876C-B6AF6B7BC712}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{E83B629E-09DE-4A27-9F41-9ECE3F83D6B7}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{5707B8A8-DDED-4FD7-BFA9-4297392E6C8B}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{4E561F94-8108-42CB-89A6-4B2909CD6937}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>